--- a/Mycnn/Mycnn/汉字识别全连接层分类.xlsx
+++ b/Mycnn/Mycnn/汉字识别全连接层分类.xlsx
@@ -40,6 +40,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">网络结构:784-392-196-12  </t>
     </r>
     <r>
@@ -180,6 +186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>[四层]</t>
     </r>
     <r>
@@ -2936,8 +2949,8 @@
   <sheetPr/>
   <dimension ref="B1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="U16" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
